--- a/databases/oportunidades/Oportunidad - Uso de la tecnología e innovación en salud.xlsx
+++ b/databases/oportunidades/Oportunidad - Uso de la tecnología e innovación en salud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msuarez\OneDrive\CEPLAN\CeplanPythonCode\excel_automation\databases\oportunidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{F0456121-7BD4-478E-9E90-8725E9A2D6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D27BD407-46E6-44B6-BAAB-9135FB5C657D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{F0456121-7BD4-478E-9E90-8725E9A2D6EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BDF8B24-6713-4F0F-8BD5-3AEE6B91E220}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="268">
   <si>
     <t>Nombre</t>
   </si>
@@ -155,42 +155,6 @@
     <t>La educación virtual permite el acceso a estudiantes que, por diversas circunstancias, no pueden asistir presencialmente ni ajustarse a horarios predeterminados.</t>
   </si>
   <si>
-    <t>Desarrollo de competencias digitales</t>
-  </si>
-  <si>
-    <t>Fomenta el uso de herramientas de comunicación en línea, colaboración virtual y manejo de plataformas tecnológicas, habilidades altamente valoradas en el mercado laboral.</t>
-  </si>
-  <si>
-    <t>Personalización de la educación</t>
-  </si>
-  <si>
-    <t>La digitalización permite recopilar datos sobre el desempeño de los estudiantes para adaptar los contenidos a sus intereses y habilidades, brindando una educación más inclusiva.</t>
-  </si>
-  <si>
-    <t>Flexibilidad de la educación</t>
-  </si>
-  <si>
-    <t>Los estudiantes pueden acceder al contenido educativo en línea en el momento que les resulte más conveniente, adaptando su aprendizaje a sus responsabilidades laborales y personales.</t>
-  </si>
-  <si>
-    <t>Fortalecimiento de comunidades de aprendizaje globales</t>
-  </si>
-  <si>
-    <t>Las nuevas metodologías didácticas facilitan el networking y la colaboración entre estudiantes y docentes de distintas partes del mundo.</t>
-  </si>
-  <si>
-    <t>Transformación de la gestión académica y escolar</t>
-  </si>
-  <si>
-    <t>La adopción de sistemas de información estudiantil (SIS) y plataformas tecnológicas optimiza la matrícula, programación de horarios, seguimiento de asistencia, consulta de calificaciones y planificación académica.</t>
-  </si>
-  <si>
-    <t>Transformación de la gestión administrativa</t>
-  </si>
-  <si>
-    <t>La digitalización mejora la eficiencia institucional al eliminar el uso excesivo de papel, optimizar la emisión de pagos, gestión de solicitudes, procesamiento de nóminas y generación de reportes financieros.</t>
-  </si>
-  <si>
     <t>Formato número</t>
   </si>
   <si>
@@ -218,12 +182,6 @@
     <t>https://ourworldindata.org/grapher/public-health-expenditure-share-gdp?time=2000..latest&amp;country=PER~CHL~USA~GBR~COL~MEX</t>
   </si>
   <si>
-    <t>Mundo: Gasto público en salud como porcentaje del PBI, 2010-2023.</t>
-  </si>
-  <si>
-    <t>$Departamento: Gasto público en salud, 2016-2024</t>
-  </si>
-  <si>
     <t>Total - Nivel de gobierno (nacional) - Sector (salud) - Departamento - PIM</t>
   </si>
   <si>
@@ -263,12 +221,6 @@
     <t>Figura 4</t>
   </si>
   <si>
-    <t>Perú: Total de establecimientos de salud con servicio telemedicina por departamento, 2024</t>
-  </si>
-  <si>
-    <t>$Departamento: Total de establecimientos de salud con servicio telemedicina por provincia, 2024</t>
-  </si>
-  <si>
     <t>Inspeccionar -&gt; Red -&gt; department-points -&gt; Respuesta</t>
   </si>
   <si>
@@ -855,6 +807,33 @@
   </si>
   <si>
     <t xml:space="preserve">Lima </t>
+  </si>
+  <si>
+    <t>$Departamento: gasto público en salud, 2016-2024</t>
+  </si>
+  <si>
+    <t>Mundo: gasto público en salud como porcentaje del PBI, 2010-2023.</t>
+  </si>
+  <si>
+    <t>$Departamento: total de establecimientos de salud con servicio de telemedicina por provincia, 2024</t>
+  </si>
+  <si>
+    <t>Perú: total de establecimientos de salud con servicio de telemedicina por departamento, 2024</t>
+  </si>
+  <si>
+    <t>Reserva digital de citas médicas</t>
+  </si>
+  <si>
+    <t>Ahorro en costos de atención médica</t>
+  </si>
+  <si>
+    <t>Digitalización de la historia médica</t>
+  </si>
+  <si>
+    <t>permitiendo su visibilidad por los pacientes</t>
+  </si>
+  <si>
+    <t>Monitoreo en tiempo real de salud de los pacientes</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1940,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1997,7 +1976,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,13 +1984,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
@@ -2027,22 +2006,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -2051,59 +2030,59 @@
         <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
@@ -2153,10 +2132,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>13</v>
@@ -2165,13 +2144,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -2826,7 +2805,7 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B3" s="27">
         <v>96572591</v>
@@ -2864,7 +2843,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B4" s="27">
         <v>69117576</v>
@@ -3206,7 +3185,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B13" s="27">
         <v>97304550</v>
@@ -3586,7 +3565,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B23" s="27">
         <v>76308867</v>
@@ -3738,7 +3717,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B27" s="27">
         <v>24246988</v>
@@ -3794,7 +3773,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,7 +3842,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>56</v>
@@ -3895,7 +3874,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -3911,7 +3890,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>86</v>
@@ -3943,7 +3922,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>104</v>
@@ -3967,7 +3946,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>249</v>
@@ -4006,7 +3985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4346DF9D-C258-4C6E-A637-22A55547B999}">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4017,10 +3996,10 @@
         <v>38</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4031,7 +4010,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4045,7 +4024,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4059,7 +4038,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4073,7 +4052,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4087,7 +4066,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4098,7 +4077,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4109,7 +4088,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4120,7 +4099,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4131,7 +4110,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4139,10 +4118,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4150,10 +4129,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4161,10 +4140,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4175,7 +4154,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4186,7 +4165,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4197,7 +4176,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4208,7 +4187,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4219,7 +4198,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4230,7 +4209,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4241,7 +4220,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4252,7 +4231,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4263,7 +4242,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4271,10 +4250,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4282,10 +4261,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4296,7 +4275,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4307,7 +4286,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4318,7 +4297,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4326,10 +4305,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -4340,7 +4319,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4351,7 +4330,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -4362,7 +4341,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -4370,10 +4349,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4384,7 +4363,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4392,10 +4371,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4406,7 +4385,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -4414,10 +4393,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4425,10 +4404,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4439,7 +4418,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -4447,10 +4426,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -4458,10 +4437,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -4472,7 +4451,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -4480,10 +4459,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -4491,10 +4470,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -4505,7 +4484,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -4513,10 +4492,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -4524,10 +4503,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -4535,10 +4514,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -4546,10 +4525,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -4560,7 +4539,7 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -4571,7 +4550,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -4582,7 +4561,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -4593,7 +4572,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -4604,7 +4583,7 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -4615,7 +4594,7 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4626,7 +4605,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4634,10 +4613,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4645,10 +4624,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -4659,7 +4638,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -4670,7 +4649,7 @@
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -4681,7 +4660,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -4689,10 +4668,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -4703,7 +4682,7 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4714,7 +4693,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -4725,7 +4704,7 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4733,10 +4712,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -4747,7 +4726,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4758,7 +4737,7 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -4766,10 +4745,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -4777,10 +4756,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -4791,7 +4770,7 @@
         <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4802,7 +4781,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4813,7 +4792,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -4821,10 +4800,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -4832,10 +4811,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -4843,10 +4822,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -4857,7 +4836,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -4865,10 +4844,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -4876,10 +4855,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -4890,7 +4869,7 @@
         <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -4901,7 +4880,7 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -4912,7 +4891,7 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -4923,7 +4902,7 @@
         <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -4931,10 +4910,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -4945,7 +4924,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -4956,7 +4935,7 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -4964,10 +4943,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -4978,7 +4957,7 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -4989,7 +4968,7 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -5000,7 +4979,7 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -5011,7 +4990,7 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5022,7 +5001,7 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5030,10 +5009,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -5044,7 +5023,7 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -5055,7 +5034,7 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -5066,7 +5045,7 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -5077,7 +5056,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -5085,10 +5064,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -5096,10 +5075,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -5110,7 +5089,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -5118,10 +5097,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C100">
         <v>7</v>
@@ -5132,7 +5111,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C101">
         <v>7</v>
@@ -5140,10 +5119,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -5154,7 +5133,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C103">
         <v>7</v>
@@ -5165,7 +5144,7 @@
         <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -5176,7 +5155,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -5184,10 +5163,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C106">
         <v>8</v>
@@ -5195,10 +5174,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -5209,7 +5188,7 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -5217,10 +5196,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -5231,7 +5210,7 @@
         <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C110">
         <v>8</v>
@@ -5242,7 +5221,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -5253,7 +5232,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C112">
         <v>8</v>
@@ -5264,7 +5243,7 @@
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -5275,7 +5254,7 @@
         <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C114">
         <v>8</v>
@@ -5286,7 +5265,7 @@
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C115">
         <v>8</v>
@@ -5294,10 +5273,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C116">
         <v>8</v>
@@ -5308,7 +5287,7 @@
         <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -5316,10 +5295,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -5330,7 +5309,7 @@
         <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -5341,7 +5320,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -5352,7 +5331,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -5360,10 +5339,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -5371,10 +5350,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C123">
         <v>10</v>
@@ -5385,7 +5364,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C124">
         <v>10</v>
@@ -5396,7 +5375,7 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C125">
         <v>11</v>
@@ -5407,7 +5386,7 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C126">
         <v>11</v>
@@ -5415,10 +5394,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B127" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C127">
         <v>11</v>
@@ -5429,7 +5408,7 @@
         <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C128">
         <v>11</v>
@@ -5437,10 +5416,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C129">
         <v>11</v>
@@ -5451,7 +5430,7 @@
         <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C130">
         <v>11</v>
@@ -5462,7 +5441,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C131">
         <v>12</v>
@@ -5473,7 +5452,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C132">
         <v>12</v>
@@ -5484,7 +5463,7 @@
         <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C133">
         <v>13</v>
@@ -5492,10 +5471,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C134">
         <v>13</v>
@@ -5506,7 +5485,7 @@
         <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C135">
         <v>13</v>
@@ -5517,7 +5496,7 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C136">
         <v>13</v>
@@ -5528,7 +5507,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C137">
         <v>13</v>
@@ -5539,7 +5518,7 @@
         <v>28</v>
       </c>
       <c r="B138" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C138">
         <v>13</v>
@@ -5550,7 +5529,7 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C139">
         <v>13</v>
@@ -5561,7 +5540,7 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C140">
         <v>14</v>
@@ -5572,7 +5551,7 @@
         <v>30</v>
       </c>
       <c r="B141" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C141">
         <v>14</v>
@@ -5583,7 +5562,7 @@
         <v>30</v>
       </c>
       <c r="B142" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C142">
         <v>14</v>
@@ -5594,7 +5573,7 @@
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C143">
         <v>14</v>
@@ -5605,7 +5584,7 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C144">
         <v>15</v>
@@ -5616,7 +5595,7 @@
         <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C145">
         <v>15</v>
@@ -5627,7 +5606,7 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C146">
         <v>15</v>
@@ -5638,7 +5617,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C147">
         <v>16</v>
@@ -5649,7 +5628,7 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C148">
         <v>16</v>
@@ -5657,10 +5636,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C149">
         <v>16</v>
@@ -5671,7 +5650,7 @@
         <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C150">
         <v>16</v>
@@ -5679,10 +5658,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B151" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C151">
         <v>17</v>
@@ -5704,7 +5683,7 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C153">
         <v>17</v>
@@ -5715,7 +5694,7 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C154">
         <v>17</v>
@@ -5726,7 +5705,7 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C155">
         <v>18</v>
@@ -5737,7 +5716,7 @@
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C156">
         <v>18</v>
@@ -5748,7 +5727,7 @@
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C157">
         <v>18</v>
@@ -5759,7 +5738,7 @@
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -5781,7 +5760,7 @@
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C160">
         <v>20</v>
@@ -5792,7 +5771,7 @@
         <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C161">
         <v>20</v>
@@ -5800,10 +5779,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C162">
         <v>20</v>
@@ -5811,10 +5790,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B163" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C163">
         <v>21</v>
@@ -5822,10 +5801,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B164" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C164">
         <v>21</v>
@@ -5836,7 +5815,7 @@
         <v>18</v>
       </c>
       <c r="B165" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C165">
         <v>21</v>
@@ -5844,10 +5823,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B166" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C166">
         <v>21</v>
@@ -5858,7 +5837,7 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C167">
         <v>22</v>
@@ -5869,7 +5848,7 @@
         <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C168">
         <v>22</v>
@@ -5880,7 +5859,7 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C169">
         <v>24</v>
@@ -5891,7 +5870,7 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C170">
         <v>26</v>
@@ -5902,7 +5881,7 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C171">
         <v>27</v>
@@ -5910,10 +5889,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B172" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C172">
         <v>27</v>
@@ -5924,7 +5903,7 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C173">
         <v>29</v>
@@ -5935,7 +5914,7 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C174">
         <v>30</v>
@@ -5946,7 +5925,7 @@
         <v>34</v>
       </c>
       <c r="B175" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C175">
         <v>30</v>
@@ -5957,7 +5936,7 @@
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C176">
         <v>31</v>
@@ -5965,10 +5944,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C177">
         <v>33</v>
@@ -5979,7 +5958,7 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C178">
         <v>33</v>
@@ -5987,10 +5966,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B179" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C179">
         <v>34</v>
@@ -6001,7 +5980,7 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C180">
         <v>34</v>
@@ -6012,7 +5991,7 @@
         <v>30</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C181">
         <v>34</v>
@@ -6023,7 +6002,7 @@
         <v>37</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C182">
         <v>35</v>
@@ -6034,7 +6013,7 @@
         <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C183">
         <v>36</v>
@@ -6045,7 +6024,7 @@
         <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C184">
         <v>38</v>
@@ -6053,10 +6032,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C185">
         <v>39</v>
@@ -6067,7 +6046,7 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C186">
         <v>43</v>
@@ -6078,7 +6057,7 @@
         <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C187">
         <v>49</v>
@@ -6089,7 +6068,7 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C188">
         <v>55</v>
@@ -6100,7 +6079,7 @@
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C189">
         <v>64</v>
@@ -6130,10 +6109,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B192" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C192">
         <v>78</v>
@@ -6144,7 +6123,7 @@
         <v>25</v>
       </c>
       <c r="B193" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C193">
         <v>366</v>
@@ -6159,8 +6138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31AE7B-E6DC-4EC3-8EDA-5D75A33CF19C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6185,53 +6164,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/databases/oportunidades/Oportunidad - Uso de la tecnología e innovación en salud.xlsx
+++ b/databases/oportunidades/Oportunidad - Uso de la tecnología e innovación en salud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msuarez\OneDrive\CEPLAN\CeplanPythonCode\excel_automation\databases\oportunidades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{F0456121-7BD4-478E-9E90-8725E9A2D6EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BDF8B24-6713-4F0F-8BD5-3AEE6B91E220}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8BE865D6-8F81-4191-993C-62B690EBC772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F7E149-901D-4B92-BBB9-FB4D01EFF5FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" activeTab="5" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="275">
   <si>
     <t>Nombre</t>
   </si>
@@ -149,12 +149,6 @@
     <t>Departamento</t>
   </si>
   <si>
-    <t>Eliminación de barreras geográficas y temporales</t>
-  </si>
-  <si>
-    <t>La educación virtual permite el acceso a estudiantes que, por diversas circunstancias, no pueden asistir presencialmente ni ajustarse a horarios predeterminados.</t>
-  </si>
-  <si>
     <t>Formato número</t>
   </si>
   <si>
@@ -182,6 +176,9 @@
     <t>https://ourworldindata.org/grapher/public-health-expenditure-share-gdp?time=2000..latest&amp;country=PER~CHL~USA~GBR~COL~MEX</t>
   </si>
   <si>
+    <t>Mundo: Gasto público en salud como porcentaje del PBI, 2010-2023.</t>
+  </si>
+  <si>
     <t>Total - Nivel de gobierno (nacional) - Sector (salud) - Departamento - PIM</t>
   </si>
   <si>
@@ -221,6 +218,12 @@
     <t>Figura 4</t>
   </si>
   <si>
+    <t>Perú: Total de establecimientos de salud con servicio telemedicina por departamento, 2024</t>
+  </si>
+  <si>
+    <t>$Departamento: Total de establecimientos de salud con servicio telemedicina por provincia, 2024</t>
+  </si>
+  <si>
     <t>Inspeccionar -&gt; Red -&gt; department-points -&gt; Respuesta</t>
   </si>
   <si>
@@ -809,31 +812,49 @@
     <t xml:space="preserve">Lima </t>
   </si>
   <si>
-    <t>$Departamento: gasto público en salud, 2016-2024</t>
-  </si>
-  <si>
-    <t>Mundo: gasto público en salud como porcentaje del PBI, 2010-2023.</t>
-  </si>
-  <si>
-    <t>$Departamento: total de establecimientos de salud con servicio de telemedicina por provincia, 2024</t>
-  </si>
-  <si>
-    <t>Perú: total de establecimientos de salud con servicio de telemedicina por departamento, 2024</t>
-  </si>
-  <si>
-    <t>Reserva digital de citas médicas</t>
-  </si>
-  <si>
-    <t>Ahorro en costos de atención médica</t>
-  </si>
-  <si>
-    <t>Digitalización de la historia médica</t>
-  </si>
-  <si>
-    <t>permitiendo su visibilidad por los pacientes</t>
-  </si>
-  <si>
-    <t>Monitoreo en tiempo real de salud de los pacientes</t>
+    <t>$Departamento: Gasto público en salud, 2016-2025</t>
+  </si>
+  <si>
+    <t>Reducción de barreras geográficas</t>
+  </si>
+  <si>
+    <t>Permite acceso a especialistas para poblaciones rurales o de difícil acceso, eliminando la necesidad de desplazamientos costosos y largos.</t>
+  </si>
+  <si>
+    <t>Reducción de la congestión hospitalaria</t>
+  </si>
+  <si>
+    <t>La telemedicina permite atender a miles de pacientes de manera remota, descongestionando los servicios de salud y optimizando recursos. Ejemplo: EsSalud Moquegua atendió 56,000 pacientes en 202</t>
+  </si>
+  <si>
+    <t>Monitoreo continuo de pacientes</t>
+  </si>
+  <si>
+    <t>Los dispositivos vestibles, como los relojes inteligentes, facilitan el seguimiento de pacientes en tiempo real, permitiendo intervenciones tempranas.</t>
+  </si>
+  <si>
+    <t>Optimización de recursos</t>
+  </si>
+  <si>
+    <t>Reduce la carga en hospitales al evitar consultas presenciales innecesarias y permite una mejor distribución del personal médico.</t>
+  </si>
+  <si>
+    <t>Enfoque preventivo</t>
+  </si>
+  <si>
+    <t>Las nuevas tecnologías en salud fomentan la medicina preventiva mediante el análisis de datos y alertas tempranas, cambiando el paradigma de tratamiento puro a tratamiento acompañado de prevención.</t>
+  </si>
+  <si>
+    <t>Capacitación profesional remota</t>
+  </si>
+  <si>
+    <t>La telesalud facilita la capacitacion y formación continua de médicos en regiones alejadas mediante plataformas digitales y casos clínicos virtuales.</t>
+  </si>
+  <si>
+    <t>Personalización de tratamientos</t>
+  </si>
+  <si>
+    <t>La recolección sistemática de datos permite adaptar los tratamientos a las necesidades específicas de cada paciente.</t>
   </si>
 </sst>
 </file>
@@ -1641,9 +1662,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1681,7 +1702,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1787,7 +1808,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1929,7 +1950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1940,7 +1961,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1976,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1984,13 +2005,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
@@ -2006,22 +2027,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -2030,59 +2051,59 @@
         <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
@@ -2121,9 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48C6A6D-60DF-4009-9D61-A8CF8FF9B162}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2132,10 +2151,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>13</v>
@@ -2144,13 +2163,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -2715,7 +2734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A23" sqref="A23"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2824,7 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="27">
         <v>96572591</v>
@@ -2843,7 +2862,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="27">
         <v>69117576</v>
@@ -3185,7 +3204,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="27">
         <v>97304550</v>
@@ -3565,7 +3584,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27">
         <v>76308867</v>
@@ -3717,7 +3736,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="27">
         <v>24246988</v>
@@ -3763,7 +3782,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3773,7 +3792,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3861,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>56</v>
@@ -3874,7 +3893,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -3890,7 +3909,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>86</v>
@@ -3922,7 +3941,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>104</v>
@@ -3946,7 +3965,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>249</v>
@@ -3986,7 +4005,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,10 +4015,10 @@
         <v>38</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4010,7 +4029,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4024,7 +4043,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4038,7 +4057,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4052,7 +4071,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4066,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4077,7 +4096,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4088,7 +4107,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4099,7 +4118,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4110,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4118,10 +4137,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4129,10 +4148,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4140,10 +4159,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4154,7 +4173,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4165,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4176,7 +4195,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4187,7 +4206,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4198,7 +4217,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4209,7 +4228,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4220,7 +4239,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4231,7 +4250,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4242,7 +4261,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4250,10 +4269,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4261,10 +4280,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4275,7 +4294,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4286,7 +4305,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4297,7 +4316,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4305,10 +4324,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -4319,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4330,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -4341,7 +4360,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -4349,10 +4368,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4363,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4371,10 +4390,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4385,7 +4404,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -4393,10 +4412,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4404,10 +4423,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4418,7 +4437,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -4426,10 +4445,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -4437,10 +4456,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -4451,7 +4470,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -4459,10 +4478,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -4470,10 +4489,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -4484,7 +4503,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -4492,10 +4511,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -4503,10 +4522,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -4514,10 +4533,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -4525,10 +4544,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -4539,7 +4558,7 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -4550,7 +4569,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -4561,7 +4580,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -4572,7 +4591,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -4583,7 +4602,7 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -4594,7 +4613,7 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4605,7 +4624,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4613,10 +4632,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4624,10 +4643,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -4638,7 +4657,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -4649,7 +4668,7 @@
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -4660,7 +4679,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -4668,10 +4687,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -4682,7 +4701,7 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4693,7 +4712,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -4704,7 +4723,7 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4712,10 +4731,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -4726,7 +4745,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4737,7 +4756,7 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -4745,10 +4764,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -4756,10 +4775,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -4770,7 +4789,7 @@
         <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4781,7 +4800,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4792,7 +4811,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -4800,10 +4819,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -4811,10 +4830,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -4822,10 +4841,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -4836,7 +4855,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -4844,10 +4863,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -4855,10 +4874,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -4869,7 +4888,7 @@
         <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -4880,7 +4899,7 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -4891,7 +4910,7 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -4902,7 +4921,7 @@
         <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -4910,10 +4929,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -4924,7 +4943,7 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -4935,7 +4954,7 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -4943,10 +4962,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -4957,7 +4976,7 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -4968,7 +4987,7 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -4979,7 +4998,7 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -4990,7 +5009,7 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5001,7 +5020,7 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5009,10 +5028,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -5023,7 +5042,7 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -5034,7 +5053,7 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -5045,7 +5064,7 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -5056,7 +5075,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -5064,10 +5083,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C97">
         <v>7</v>
@@ -5075,10 +5094,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -5089,7 +5108,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -5097,10 +5116,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C100">
         <v>7</v>
@@ -5111,7 +5130,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C101">
         <v>7</v>
@@ -5119,10 +5138,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -5133,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C103">
         <v>7</v>
@@ -5144,7 +5163,7 @@
         <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -5155,7 +5174,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -5163,10 +5182,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C106">
         <v>8</v>
@@ -5174,10 +5193,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -5188,7 +5207,7 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -5196,10 +5215,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -5210,7 +5229,7 @@
         <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C110">
         <v>8</v>
@@ -5221,7 +5240,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -5232,7 +5251,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C112">
         <v>8</v>
@@ -5243,7 +5262,7 @@
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -5254,7 +5273,7 @@
         <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C114">
         <v>8</v>
@@ -5265,7 +5284,7 @@
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C115">
         <v>8</v>
@@ -5273,10 +5292,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C116">
         <v>8</v>
@@ -5287,7 +5306,7 @@
         <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -5295,10 +5314,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -5309,7 +5328,7 @@
         <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -5320,7 +5339,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -5331,7 +5350,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -5339,10 +5358,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -5350,10 +5369,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C123">
         <v>10</v>
@@ -5364,7 +5383,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C124">
         <v>10</v>
@@ -5375,7 +5394,7 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C125">
         <v>11</v>
@@ -5386,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C126">
         <v>11</v>
@@ -5394,10 +5413,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B127" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C127">
         <v>11</v>
@@ -5408,7 +5427,7 @@
         <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C128">
         <v>11</v>
@@ -5416,10 +5435,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C129">
         <v>11</v>
@@ -5430,7 +5449,7 @@
         <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C130">
         <v>11</v>
@@ -5441,7 +5460,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C131">
         <v>12</v>
@@ -5452,7 +5471,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C132">
         <v>12</v>
@@ -5463,7 +5482,7 @@
         <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C133">
         <v>13</v>
@@ -5471,10 +5490,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C134">
         <v>13</v>
@@ -5485,7 +5504,7 @@
         <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C135">
         <v>13</v>
@@ -5496,7 +5515,7 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C136">
         <v>13</v>
@@ -5507,7 +5526,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C137">
         <v>13</v>
@@ -5518,7 +5537,7 @@
         <v>28</v>
       </c>
       <c r="B138" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C138">
         <v>13</v>
@@ -5529,7 +5548,7 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C139">
         <v>13</v>
@@ -5540,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C140">
         <v>14</v>
@@ -5551,7 +5570,7 @@
         <v>30</v>
       </c>
       <c r="B141" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C141">
         <v>14</v>
@@ -5562,7 +5581,7 @@
         <v>30</v>
       </c>
       <c r="B142" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C142">
         <v>14</v>
@@ -5573,7 +5592,7 @@
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C143">
         <v>14</v>
@@ -5584,7 +5603,7 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C144">
         <v>15</v>
@@ -5595,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C145">
         <v>15</v>
@@ -5606,7 +5625,7 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C146">
         <v>15</v>
@@ -5617,7 +5636,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C147">
         <v>16</v>
@@ -5628,7 +5647,7 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C148">
         <v>16</v>
@@ -5636,10 +5655,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B149" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C149">
         <v>16</v>
@@ -5650,7 +5669,7 @@
         <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C150">
         <v>16</v>
@@ -5658,10 +5677,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B151" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C151">
         <v>17</v>
@@ -5683,7 +5702,7 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C153">
         <v>17</v>
@@ -5694,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C154">
         <v>17</v>
@@ -5705,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C155">
         <v>18</v>
@@ -5716,7 +5735,7 @@
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C156">
         <v>18</v>
@@ -5727,7 +5746,7 @@
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C157">
         <v>18</v>
@@ -5738,7 +5757,7 @@
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -5760,7 +5779,7 @@
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C160">
         <v>20</v>
@@ -5771,7 +5790,7 @@
         <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C161">
         <v>20</v>
@@ -5779,10 +5798,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C162">
         <v>20</v>
@@ -5790,10 +5809,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C163">
         <v>21</v>
@@ -5801,10 +5820,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C164">
         <v>21</v>
@@ -5815,7 +5834,7 @@
         <v>18</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C165">
         <v>21</v>
@@ -5823,10 +5842,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C166">
         <v>21</v>
@@ -5837,7 +5856,7 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C167">
         <v>22</v>
@@ -5848,7 +5867,7 @@
         <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C168">
         <v>22</v>
@@ -5859,7 +5878,7 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C169">
         <v>24</v>
@@ -5870,7 +5889,7 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C170">
         <v>26</v>
@@ -5881,7 +5900,7 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C171">
         <v>27</v>
@@ -5889,10 +5908,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C172">
         <v>27</v>
@@ -5903,7 +5922,7 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C173">
         <v>29</v>
@@ -5914,7 +5933,7 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C174">
         <v>30</v>
@@ -5925,7 +5944,7 @@
         <v>34</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C175">
         <v>30</v>
@@ -5936,7 +5955,7 @@
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C176">
         <v>31</v>
@@ -5944,10 +5963,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C177">
         <v>33</v>
@@ -5958,7 +5977,7 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C178">
         <v>33</v>
@@ -5966,10 +5985,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C179">
         <v>34</v>
@@ -5980,7 +5999,7 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C180">
         <v>34</v>
@@ -5991,7 +6010,7 @@
         <v>30</v>
       </c>
       <c r="B181" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C181">
         <v>34</v>
@@ -6002,7 +6021,7 @@
         <v>37</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C182">
         <v>35</v>
@@ -6013,7 +6032,7 @@
         <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C183">
         <v>36</v>
@@ -6024,7 +6043,7 @@
         <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C184">
         <v>38</v>
@@ -6032,10 +6051,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B185" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C185">
         <v>39</v>
@@ -6046,7 +6065,7 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C186">
         <v>43</v>
@@ -6057,7 +6076,7 @@
         <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C187">
         <v>49</v>
@@ -6068,7 +6087,7 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C188">
         <v>55</v>
@@ -6079,7 +6098,7 @@
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C189">
         <v>64</v>
@@ -6109,10 +6128,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B192" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C192">
         <v>78</v>
@@ -6123,7 +6142,7 @@
         <v>25</v>
       </c>
       <c r="B193" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C193">
         <v>366</v>
@@ -6139,7 +6158,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6156,47 +6175,61 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="17"/>
+        <v>265</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
